--- a/config_files/20112_3.xlsx
+++ b/config_files/20112_3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>wejscie</t>
   </si>
@@ -89,9 +89,6 @@
     <t>0-10V = 0-2500 Pa</t>
   </si>
   <si>
-    <t>m/s</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -111,6 +108,12 @@
   </si>
   <si>
     <t>%/Pa</t>
+  </si>
+  <si>
+    <t>powinno byc w m/s ale na razie pokazujemy w voltach</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +526,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,17 +554,17 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <f>55/6</f>
         <v>9.1666666666666661</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -566,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>

--- a/config_files/20112_3.xlsx
+++ b/config_files/20112_3.xlsx
@@ -86,9 +86,6 @@
     <t>Pa</t>
   </si>
   <si>
-    <t>0-10V = 0-2500 Pa</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
     <t>prędkość obrotowa</t>
   </si>
   <si>
-    <t>Hz</t>
-  </si>
-  <si>
-    <t>0-6V = 0-55Hz</t>
-  </si>
-  <si>
     <t>wilgotność/ ciśnienie tłoczenia</t>
   </si>
   <si>
@@ -114,6 +105,15 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>0-10V = 0-3000 Pa</t>
+  </si>
+  <si>
+    <t>0-10V = 0-1000 Pa</t>
+  </si>
+  <si>
+    <t>BRAK</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,13 +509,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,10 +526,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -554,17 +554,14 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2">
-        <f>55/6</f>
-        <v>9.1666666666666661</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,16 +569,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/config_files/20112_3.xlsx
+++ b/config_files/20112_3.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -509,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>

--- a/config_files/20112_3.xlsx
+++ b/config_files/20112_3.xlsx
@@ -492,7 +492,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -509,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
